--- a/BattleGroup/克里斯不演必胜小队.xlsx
+++ b/BattleGroup/克里斯不演必胜小队.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diehe\source\repos\BattleGroup\BattleGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF6D28-A9C9-4636-BED8-796EDF09CF2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299682D5-5A07-44A8-A259-E55BF5B69C2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cade" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>上路</t>
   </si>
@@ -132,19 +132,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>吕布</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小乔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂铁</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>盾山</t>
+  </si>
+  <si>
+    <t>刘邦</t>
+  </si>
+  <si>
+    <t>廉颇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -439,15 +447,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,24 +464,24 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -491,6 +499,15 @@
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -513,12 +530,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -547,17 +564,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,22 +599,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,7 +643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,7 +667,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,12 +676,12 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -672,18 +689,18 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,45 +720,45 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
